--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="62">
   <si>
     <t>-</t>
   </si>
@@ -655,9 +655,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
     <t>10cents</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -682,9 +676,6 @@
     <t>1€</t>
   </si>
   <si>
-    <t>Bi-Metallic</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -812,6 +803,21 @@
   </si>
   <si>
     <t>5.000.000</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: Mouflon</t>
+  </si>
+  <si>
+    <t>Obv: Kyrenia ship</t>
+  </si>
+  <si>
+    <t>Obv: Idol of Pomos</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1085,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,6 +1193,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1661,11 +1670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1695,7 +1704,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
@@ -1710,16 +1719,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1728,15 +1737,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -1754,15 +1765,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -1780,12 +1793,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -1806,12 +1821,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -1832,12 +1849,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -1858,12 +1877,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -1884,12 +1905,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -1910,12 +1933,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -1936,12 +1961,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -1962,12 +1989,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -1988,12 +2017,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2014,12 +2045,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2091,7 +2124,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2121,7 +2154,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
@@ -2136,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2154,15 +2187,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2180,15 +2215,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -2206,12 +2243,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2232,12 +2271,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2258,12 +2299,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2284,12 +2327,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2310,12 +2355,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2336,12 +2383,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2362,12 +2411,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2388,12 +2439,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2414,12 +2467,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2440,12 +2495,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2532,7 +2589,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2562,7 +2619,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
@@ -2577,16 +2634,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2595,15 +2652,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2621,15 +2680,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -2647,12 +2708,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2673,12 +2736,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2699,12 +2764,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2725,12 +2792,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2751,12 +2820,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2777,12 +2848,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2803,12 +2876,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2829,12 +2904,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2855,12 +2932,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2881,12 +2960,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2969,11 +3050,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3003,7 +3084,7 @@
       </c>
       <c r="F1" s="34"/>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="2"/>
@@ -3018,16 +3099,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3036,15 +3117,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3062,15 +3147,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3088,12 +3177,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3114,12 +3207,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3140,12 +3237,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3166,12 +3267,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3192,12 +3297,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3218,12 +3327,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3244,12 +3357,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3270,12 +3387,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3296,12 +3417,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3322,12 +3447,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3414,7 +3543,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3444,7 +3573,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
@@ -3459,16 +3588,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3477,15 +3606,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3503,15 +3636,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3529,12 +3666,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3555,12 +3696,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3581,12 +3726,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3607,12 +3756,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3633,12 +3786,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3659,12 +3816,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3685,12 +3846,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3711,12 +3876,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3737,12 +3906,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3763,12 +3936,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3840,7 +4017,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3870,7 +4047,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
@@ -3885,16 +4062,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3903,15 +4080,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3929,15 +4110,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3955,12 +4140,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3981,12 +4170,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4007,12 +4200,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4033,12 +4230,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4059,12 +4260,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4085,12 +4290,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4111,12 +4320,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4137,12 +4350,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4163,12 +4380,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4189,12 +4410,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4266,7 +4491,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4296,7 +4521,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="2"/>
@@ -4311,16 +4536,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4329,15 +4554,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4355,15 +4584,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4381,12 +4614,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4407,12 +4644,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4433,12 +4674,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4459,12 +4704,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4485,12 +4734,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4511,12 +4764,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4537,12 +4794,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4563,12 +4824,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4589,12 +4854,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4615,12 +4884,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4692,7 +4965,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4722,7 +4995,7 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="2"/>
@@ -4737,16 +5010,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4755,15 +5028,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4781,15 +5058,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4807,12 +5088,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4833,12 +5118,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4859,12 +5148,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4885,12 +5178,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4911,12 +5208,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4937,12 +5238,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4963,12 +5268,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4989,12 +5298,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5015,12 +5328,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5041,12 +5358,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5130,13 +5451,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5144,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5155,10 +5476,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5166,10 +5487,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5177,10 +5498,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5188,10 +5509,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5199,10 +5520,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD38CD2-7A5D-418A-B069-3D4ABED3CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{1B72EB20-7E62-4728-B3A0-47B473A61918}">
       <text>
         <r>
           <rPr>
@@ -65,12 +66,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{1B155AC4-FCBB-423A-96CA-C211048C6419}">
       <text>
         <r>
           <rPr>
@@ -97,8 +98,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -107,13 +108,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{A0946806-07D9-4431-8DD4-B8D7B321BB9A}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{9997A0D9-5D44-4C80-BAA1-3C67FD8C0BF6}">
       <text>
         <r>
           <rPr>
@@ -140,12 +141,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{59E6C079-61D7-4E63-8EA2-A25BA41DF950}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{06CD5B8F-7429-4FE0-8F98-2E5CBD511512}">
       <text>
         <r>
           <rPr>
@@ -172,8 +173,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -182,13 +183,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AAA546D2-D12C-4B3C-8500-F3EA5BF1A503}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{7468ED5A-5D30-4BF4-A75A-FA70B37EA81E}">
       <text>
         <r>
           <rPr>
@@ -215,12 +216,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E18A1301-DDE5-4FF7-9CE7-0FCCD34095C5}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{47536DD8-8236-4A23-89CC-16073266804E}">
       <text>
         <r>
           <rPr>
@@ -247,8 +248,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -257,13 +258,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{F9DE88E1-33C5-4B18-B19F-3E7B19A59B5D}">
       <text>
         <r>
           <rPr>
@@ -279,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{6E5D0645-18C5-4759-87F0-69CD8AB14BBB}">
       <text>
         <r>
           <rPr>
@@ -290,12 +291,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{44550975-3E40-46A3-A558-CBC07F266C97}">
       <text>
         <r>
           <rPr>
@@ -311,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{9F50BBB7-8BF6-45B0-BA1C-A271D5925E02}">
       <text>
         <r>
           <rPr>
@@ -322,8 +323,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -332,13 +333,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8DC37F0A-A4F4-47A2-86B0-BC9A869C3378}">
       <text>
         <r>
           <rPr>
@@ -354,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{BB0452FA-957B-49DC-B934-84475D9F3C89}">
       <text>
         <r>
           <rPr>
@@ -365,12 +366,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{55ADD135-DC11-4656-9D8A-E332BAEABA2D}">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{EC6CCE23-A7C4-4535-993A-0849E0ADD7B0}">
       <text>
         <r>
           <rPr>
@@ -397,8 +398,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -407,13 +408,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{330710E2-CAB1-46D2-86E1-CB82CF7A25DB}">
       <text>
         <r>
           <rPr>
@@ -429,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{A2B267D3-3FF4-4E2A-A76A-7DC33A31D2D0}">
       <text>
         <r>
           <rPr>
@@ -440,12 +441,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{87456744-A828-4E06-BC52-3056A7F7B78F}">
       <text>
         <r>
           <rPr>
@@ -461,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{F7A0308F-A722-427B-9735-0ADB05CC6DE4}">
       <text>
         <r>
           <rPr>
@@ -472,8 +473,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -482,13 +483,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{EBC75FF7-DE97-47D2-BE9A-2559ED001E08}">
       <text>
         <r>
           <rPr>
@@ -504,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{3D124A2C-0A48-4E99-A765-49CC15231952}">
       <text>
         <r>
           <rPr>
@@ -515,12 +516,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{F097BDB7-8933-4D3E-9DCD-E96276A2F3E8}">
       <text>
         <r>
           <rPr>
@@ -536,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{1EAF639A-61DE-414F-84DE-73A605249D2F}">
       <text>
         <r>
           <rPr>
@@ -547,8 +548,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -557,13 +558,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{A4889934-03DA-48E4-982A-A6DE29E2FCEB}">
       <text>
         <r>
           <rPr>
@@ -579,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{7818B9D6-F01E-48F7-A559-84C8405B55CB}">
       <text>
         <r>
           <rPr>
@@ -590,12 +591,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{36695E84-F4AD-45CB-9928-90909ABA819C}">
       <text>
         <r>
           <rPr>
@@ -611,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{19621E71-8B9B-443E-BD70-35368F5415EB}">
       <text>
         <r>
           <rPr>
@@ -622,8 +623,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -632,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="70">
   <si>
     <t>-</t>
   </si>
@@ -706,9 +707,6 @@
     <t>Photo of coins</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>2€</t>
   </si>
   <si>
@@ -818,13 +816,40 @@
   </si>
   <si>
     <t>Obv: Idol of Pomos</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>8.005.000</t>
+  </si>
+  <si>
+    <t>8.405.000</t>
+  </si>
+  <si>
+    <t>7.505.000</t>
+  </si>
+  <si>
+    <t>1.705.000</t>
+  </si>
+  <si>
+    <t>4.305.000</t>
+  </si>
+  <si>
+    <t>1.505.000</t>
+  </si>
+  <si>
+    <t>105.000</t>
+  </si>
+  <si>
+    <t>3.305.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -869,6 +894,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1141,6 +1172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,16 +1229,173 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1390,16 +1581,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="21" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1667,51 +1858,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1719,35 +1910,35 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -1760,22 +1951,22 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -1788,19 +1979,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -1816,15 +2007,494 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" ref="I6:I14" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-"),AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15" si="2">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G15">
+    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H15">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
@@ -1840,23 +2510,23 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f t="shared" ref="I6:I14" si="1">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-"),AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -1868,23 +2538,23 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -1896,23 +2566,23 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -1924,23 +2594,23 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -1952,23 +2622,23 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -1980,23 +2650,23 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2008,23 +2678,23 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2036,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
@@ -2064,7 +2734,1100 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G15">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2077,12 +3840,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2093,12 +3856,61 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2116,52 +3928,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2169,88 +3981,94 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
+      <c r="H3" s="19">
+        <v>2</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="19">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2266,19 +4084,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10"/>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2294,19 +4114,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2322,19 +4144,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2350,19 +4174,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2378,19 +4204,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2406,19 +4234,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2434,19 +4264,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2462,19 +4294,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2490,19 +4324,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10"/>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2514,6 +4350,36 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2527,11 +4393,28 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2543,12 +4426,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2560,10 +4443,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2581,52 +4466,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2634,88 +4519,94 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
+      <c r="H3" s="19">
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="19">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2731,19 +4622,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10"/>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2759,19 +4652,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2787,19 +4682,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2815,19 +4712,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2843,19 +4742,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2871,19 +4772,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2899,19 +4802,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2927,19 +4832,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2955,19 +4862,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10"/>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2979,6 +4888,36 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2992,11 +4931,28 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3008,12 +4964,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3025,10 +4981,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3046,52 +5004,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="36"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3099,94 +5057,94 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
+      <c r="H3" s="19">
+        <v>2</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="19">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3202,21 +5160,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3232,21 +5190,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3262,21 +5220,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3292,21 +5250,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3322,21 +5280,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3352,21 +5310,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3382,21 +5340,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3412,21 +5370,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3442,21 +5400,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3468,6 +5426,36 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3480,12 +5468,30 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3497,12 +5503,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3514,10 +5520,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3535,52 +5543,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3588,67 +5596,67 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
+      <c r="C4" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3657,25 +5665,25 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I4:I15" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
+      <c r="C5" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3691,21 +5699,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
+      <c r="C6" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3721,21 +5729,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
+      <c r="C7" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3751,21 +5759,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
+      <c r="C8" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3781,21 +5789,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
+      <c r="C9" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3811,21 +5819,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3841,21 +5849,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3871,21 +5879,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3901,21 +5909,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3931,21 +5939,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3957,24 +5965,88 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3986,12 +6058,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4009,1430 +6081,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I14" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5442,14 +6092,14 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -5460,7 +6110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5471,7 +6121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5482,7 +6132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5490,10 +6140,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5504,36 +6154,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD38CD2-7A5D-418A-B069-3D4ABED3CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55700B-A0C1-4D93-B566-D98D6AFED5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -633,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="88">
   <si>
     <t>-</t>
   </si>
@@ -843,13 +852,70 @@
   </si>
   <si>
     <t>3.305.000</t>
+  </si>
+  <si>
+    <t>9.155.000</t>
+  </si>
+  <si>
+    <t>12.605.000</t>
+  </si>
+  <si>
+    <t>7.955.000</t>
+  </si>
+  <si>
+    <t>4.445.000</t>
+  </si>
+  <si>
+    <t>4.805.000</t>
+  </si>
+  <si>
+    <t>1.925.000</t>
+  </si>
+  <si>
+    <t>1.580.000</t>
+  </si>
+  <si>
+    <t>3.005.000</t>
+  </si>
+  <si>
+    <t>9.905.000</t>
+  </si>
+  <si>
+    <t>9.755.000</t>
+  </si>
+  <si>
+    <t>8.855.000</t>
+  </si>
+  <si>
+    <t>5.165.000</t>
+  </si>
+  <si>
+    <t>1.730.000</t>
+  </si>
+  <si>
+    <t>3.755.000</t>
+  </si>
+  <si>
+    <t>600.000</t>
+  </si>
+  <si>
+    <t>800.000</t>
+  </si>
+  <si>
+    <t>250.000</t>
+  </si>
+  <si>
+    <t>468.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -903,6 +969,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1116,7 +1186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,20 +1299,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="35">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1347,63 +1419,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1588,9 +1603,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="21" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1859,27 +1874,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14:G15"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -1900,7 +1915,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -1923,7 +1938,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -2091,7 +2106,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -2119,7 +2134,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -2147,7 +2162,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -2175,7 +2190,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -2231,7 +2246,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -2283,7 +2298,91 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f t="shared" ref="I15" si="2">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I15:I16" si="2">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" ref="I17:I18" si="3">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-"),AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2296,12 +2395,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G15">
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G15">
+  <conditionalFormatting sqref="G3:G18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2313,12 +2412,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H15">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H15">
+  <conditionalFormatting sqref="H3:H18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2338,27 +2437,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14:G15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2379,7 +2478,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -2402,7 +2501,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -2430,7 +2529,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -2458,7 +2557,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -2486,7 +2585,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -2514,7 +2613,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -2542,7 +2641,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -2570,7 +2669,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -2598,7 +2697,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -2626,7 +2725,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -2654,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -2682,7 +2781,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -2710,7 +2809,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -2738,7 +2837,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -2763,6 +2862,90 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2775,12 +2958,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G15">
-    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G18">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G15">
+  <conditionalFormatting sqref="G3:G18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2792,12 +2975,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H5:H14 H16 H18">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="H5:H14 H16 H18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2810,7 +2993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -2824,12 +3007,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15 H17">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2849,27 +3032,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +3073,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -2913,7 +3096,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -2941,7 +3124,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -2969,7 +3152,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -2997,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -3025,7 +3208,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -3053,7 +3236,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -3081,7 +3264,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -3109,7 +3292,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -3137,7 +3320,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -3165,7 +3348,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -3193,7 +3376,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -3221,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -3249,7 +3432,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -3274,6 +3457,90 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3286,12 +3553,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G14 G16 G18">
+    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
+  <conditionalFormatting sqref="G3:G14 G16 G18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3303,12 +3570,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H5:H14 H16 H18">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="H5:H14 H16 H18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3321,7 +3588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3335,12 +3602,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15 H17">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3352,12 +3619,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G15 G17">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3377,27 +3644,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3418,7 +3685,7 @@
       <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
@@ -3441,7 +3708,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -3471,7 +3738,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -3501,7 +3768,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -3531,7 +3798,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -3561,7 +3828,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -3591,7 +3858,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -3621,7 +3888,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -3651,7 +3918,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -3681,7 +3948,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -3711,7 +3978,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -3741,7 +4008,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -3771,7 +4038,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -3801,7 +4068,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -3828,6 +4095,96 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3839,12 +4196,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G14 G16 G18">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
+  <conditionalFormatting sqref="G3:G14 G16 G18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3856,12 +4214,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H5:H14 H16 H18">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14">
+  <conditionalFormatting sqref="H5:H14 H16 H18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3874,7 +4232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3888,12 +4246,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G15 G17">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3905,12 +4263,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15 H17">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3930,27 +4288,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="A15:I15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -3971,7 +4329,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -3994,7 +4352,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -4024,7 +4382,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -4054,7 +4412,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -4084,7 +4442,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -4114,7 +4472,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -4144,7 +4502,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -4174,7 +4532,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -4204,7 +4562,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -4234,7 +4592,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -4264,7 +4622,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -4294,7 +4652,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -4324,7 +4682,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -4354,7 +4712,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -4381,6 +4739,96 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4392,12 +4840,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G14 G16 G18">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
+  <conditionalFormatting sqref="G3:G14 G16 G18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4409,12 +4858,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H3:H14 H16 H18">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
+  <conditionalFormatting sqref="H3:H14 H16 H18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4426,12 +4875,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G15 G17">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4443,12 +4892,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15 H17">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4468,27 +4917,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="A15:I15"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -4509,7 +4958,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -4532,7 +4981,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -4562,7 +5011,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -4592,7 +5041,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -4622,7 +5071,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -4652,7 +5101,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -4682,7 +5131,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -4712,7 +5161,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -4742,7 +5191,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -4772,7 +5221,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -4802,7 +5251,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -4832,7 +5281,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -4862,7 +5311,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -4892,7 +5341,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -4919,6 +5368,96 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4930,12 +5469,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G14 G16 G18">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
+  <conditionalFormatting sqref="G3:G14 G16 G18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4947,12 +5487,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H3:H14 H16 H18">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
+  <conditionalFormatting sqref="H3:H14 H16 H18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4964,12 +5504,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G15 G17">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4981,12 +5521,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15 H17">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5006,27 +5546,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="A15:I15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5587,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -5070,7 +5610,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -5100,7 +5640,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -5130,7 +5670,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -5160,7 +5700,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -5190,7 +5730,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -5220,7 +5760,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -5250,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -5280,7 +5820,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -5310,7 +5850,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -5340,7 +5880,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -5370,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -5400,7 +5940,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -5430,7 +5970,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -5457,6 +5997,96 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5470,7 +6100,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5487,7 +6117,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5503,12 +6133,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G15:G18">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G15:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5520,12 +6150,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15:H18">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5545,27 +6175,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9:AB35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -5586,7 +6216,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
@@ -5609,7 +6239,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2008</v>
       </c>
@@ -5639,7 +6269,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2009</v>
       </c>
@@ -5669,7 +6299,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2010</v>
       </c>
@@ -5699,7 +6329,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2011</v>
       </c>
@@ -5729,7 +6359,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2012</v>
       </c>
@@ -5759,7 +6389,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2013</v>
       </c>
@@ -5789,7 +6419,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2014</v>
       </c>
@@ -5819,7 +6449,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2015</v>
       </c>
@@ -5849,7 +6479,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2016</v>
       </c>
@@ -5878,8 +6508,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
@@ -5909,7 +6541,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -5939,7 +6571,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2019</v>
       </c>
@@ -5969,7 +6601,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -5998,6 +6630,100 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" ref="I16:I18" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6007,12 +6733,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G14 G16 G18">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
+  <conditionalFormatting sqref="G3:G14 G16 G18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6024,12 +6751,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H3:H14 H16 H18">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
+  <conditionalFormatting sqref="H3:H14 H16 H18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6041,12 +6768,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G15 G17">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6058,12 +6785,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H15 H17">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6092,14 +6819,14 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -6110,7 +6837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -6121,7 +6848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -6132,7 +6859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -6143,7 +6870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -6154,7 +6881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -6165,7 +6892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>6</v>
       </c>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55700B-A0C1-4D93-B566-D98D6AFED5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058EF1F-F3BB-4C6A-8EFD-4C7129FAD3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -650,9 +650,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -906,6 +903,9 @@
   </si>
   <si>
     <t>468.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1137,30 +1137,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1186,7 +1162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1245,6 +1221,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,12 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,7 +1270,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1876,11 +1846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1895,46 +1865,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1943,17 +1913,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -1971,17 +1941,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -1999,14 +1969,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2027,14 +1997,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2055,14 +2025,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2083,14 +2053,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2111,14 +2081,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2139,14 +2109,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2167,14 +2137,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2195,14 +2165,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2223,14 +2193,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2251,14 +2221,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2279,14 +2249,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -2307,14 +2277,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -2335,14 +2305,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -2363,14 +2333,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -2443,7 +2413,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2458,46 +2428,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2506,17 +2476,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2534,17 +2504,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -2562,14 +2532,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2590,14 +2560,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2618,14 +2588,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2646,14 +2616,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2674,14 +2644,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2702,14 +2672,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2730,14 +2700,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2758,14 +2728,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2786,14 +2756,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2814,14 +2784,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2842,14 +2812,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -2870,14 +2840,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -2898,14 +2868,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -2926,14 +2896,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3012,7 +2982,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3038,7 +3008,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3053,46 +3023,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3101,17 +3071,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3129,17 +3099,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3157,14 +3127,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3185,14 +3155,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3213,14 +3183,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3241,14 +3211,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3269,14 +3239,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3297,14 +3267,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3325,14 +3295,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3353,14 +3323,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3381,14 +3351,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3409,14 +3379,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3437,14 +3407,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -3465,14 +3435,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -3493,14 +3463,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3521,14 +3491,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3607,7 +3577,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3624,7 +3594,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3650,7 +3620,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3665,46 +3635,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3713,19 +3683,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3743,19 +3713,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3773,16 +3743,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3803,16 +3773,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3833,16 +3803,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3863,16 +3833,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3893,16 +3863,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3923,16 +3893,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3953,16 +3923,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3983,16 +3953,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4013,16 +3983,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4043,16 +4013,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4073,16 +4043,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4103,16 +4073,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4133,16 +4103,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4163,16 +4133,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4251,7 +4221,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4268,7 +4238,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4294,7 +4264,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4309,46 +4279,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4357,19 +4327,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4387,19 +4357,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4417,16 +4387,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4447,16 +4417,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4477,16 +4447,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4507,16 +4477,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4537,16 +4507,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4567,16 +4537,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4597,16 +4567,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4627,16 +4597,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4657,16 +4627,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4687,16 +4657,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4717,16 +4687,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4747,16 +4717,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4777,16 +4747,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4807,16 +4777,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4880,7 +4850,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4897,7 +4867,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4923,7 +4893,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4938,46 +4908,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4986,19 +4956,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5016,19 +4986,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5046,16 +5016,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -5076,16 +5046,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5106,16 +5076,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5136,16 +5106,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5166,16 +5136,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5196,16 +5166,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5226,16 +5196,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5256,16 +5226,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5286,16 +5256,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5316,16 +5286,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5346,16 +5316,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -5376,16 +5346,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -5406,16 +5376,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -5436,16 +5406,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -5509,7 +5479,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5526,7 +5496,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5552,7 +5522,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5567,46 +5537,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5615,19 +5585,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5645,19 +5615,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5675,16 +5645,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -5705,16 +5675,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5735,16 +5705,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5765,16 +5735,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5795,16 +5765,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5825,16 +5795,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5855,16 +5825,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5885,16 +5855,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5915,16 +5885,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5945,16 +5915,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5975,16 +5945,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -6005,16 +5975,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -6035,16 +6005,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -6065,16 +6035,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -6177,11 +6147,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9:AB35"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6196,46 +6166,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6244,19 +6214,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6274,19 +6244,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -6304,16 +6274,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -6334,16 +6304,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6364,16 +6334,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6394,16 +6364,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6424,16 +6394,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -6454,16 +6424,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -6484,16 +6454,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -6508,24 +6478,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -6546,16 +6516,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -6576,16 +6546,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -6606,16 +6576,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -6636,16 +6606,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -6666,16 +6636,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -6696,16 +6666,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -6722,8 +6692,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6773,7 +6743,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6790,7 +6760,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6828,13 +6798,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6842,10 +6812,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6853,10 +6823,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6864,10 +6834,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6875,10 +6845,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6886,10 +6856,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6897,10 +6867,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058EF1F-F3BB-4C6A-8EFD-4C7129FAD3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41C763-0714-40D0-9166-0759BA42AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1846,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2982,7 +2982,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3577,7 +3577,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3594,7 +3594,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4221,7 +4221,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4238,7 +4238,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4260,11 +4260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4345,11 +4345,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4850,7 +4850,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4867,7 +4867,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5479,7 +5479,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5496,7 +5496,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6743,7 +6743,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G15">
+  <conditionalFormatting sqref="G15 G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6760,7 +6760,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 H15">
+  <conditionalFormatting sqref="H15 H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41C763-0714-40D0-9166-0759BA42AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792FD865-2508-4E86-B7CB-9FE9FF3A0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -642,7 +652,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="89">
   <si>
     <t>-</t>
   </si>
@@ -656,12 +666,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -906,6 +910,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -973,6 +986,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1162,7 +1177,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1222,6 +1237,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1850,61 +1868,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1913,17 +1930,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -1941,17 +1958,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -1969,14 +1986,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -1997,14 +2014,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2025,14 +2042,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2053,14 +2070,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2081,14 +2098,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2109,14 +2126,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2137,14 +2154,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2165,14 +2182,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2193,14 +2210,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2221,14 +2238,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2249,14 +2266,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -2277,14 +2294,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -2305,14 +2322,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -2333,14 +2350,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -2357,9 +2374,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -2413,61 +2430,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2476,17 +2492,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -2504,17 +2520,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -2532,14 +2548,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -2560,14 +2576,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2588,14 +2604,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2616,14 +2632,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2644,14 +2660,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2672,14 +2688,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2700,14 +2716,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -2728,14 +2744,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -2756,14 +2772,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -2784,14 +2800,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -2812,14 +2828,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -2840,14 +2856,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -2868,14 +2884,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -2896,14 +2912,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -2920,9 +2936,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -2982,7 +2998,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3008,61 +3024,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3071,17 +3086,17 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3099,17 +3114,17 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3127,14 +3142,14 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3155,14 +3170,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3183,14 +3198,14 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3211,14 +3226,14 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3239,14 +3254,14 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3267,14 +3282,14 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3295,14 +3310,14 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3323,14 +3338,14 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3351,14 +3366,14 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -3379,14 +3394,14 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -3407,14 +3422,14 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -3435,14 +3450,14 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -3463,14 +3478,14 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3491,14 +3506,14 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3515,9 +3530,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -3577,7 +3592,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3594,7 +3609,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3620,61 +3635,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="36"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3683,19 +3697,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -3713,19 +3727,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -3743,16 +3757,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -3773,16 +3787,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3803,16 +3817,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3833,16 +3847,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3863,16 +3877,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3893,16 +3907,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3923,16 +3937,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -3953,16 +3967,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -3983,16 +3997,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4013,16 +4027,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4043,16 +4057,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4073,16 +4087,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4103,16 +4117,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4133,16 +4147,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4159,9 +4173,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4221,7 +4235,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4238,7 +4252,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4260,65 +4274,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4327,19 +4340,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4357,19 +4370,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -4387,16 +4400,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -4417,16 +4430,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4447,16 +4460,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4477,16 +4490,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4507,16 +4520,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4537,16 +4550,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4567,16 +4580,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -4597,16 +4610,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -4627,16 +4640,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -4657,16 +4670,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -4687,16 +4700,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -4717,16 +4730,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -4747,16 +4760,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4777,16 +4790,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4803,9 +4816,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4850,7 +4863,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4867,7 +4880,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4893,61 +4906,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4956,19 +4968,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -4986,19 +4998,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5016,16 +5028,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -5046,16 +5058,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5076,16 +5088,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5106,16 +5118,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5136,16 +5148,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5166,16 +5178,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5196,16 +5208,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5226,16 +5238,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5256,16 +5268,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5286,16 +5298,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5316,16 +5328,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -5346,16 +5358,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -5376,16 +5388,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -5406,16 +5418,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -5432,9 +5444,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5479,7 +5491,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5496,7 +5508,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5522,61 +5534,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5585,19 +5596,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -5615,19 +5626,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5645,16 +5656,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -5675,16 +5686,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5705,16 +5716,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5735,16 +5746,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5765,16 +5776,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5795,16 +5806,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5825,16 +5836,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5855,16 +5866,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5885,16 +5896,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -5915,16 +5926,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -5945,16 +5956,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -5975,16 +5986,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -6005,16 +6016,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -6035,16 +6046,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -6061,9 +6072,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -6147,65 +6158,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6214,19 +6224,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>0</v>
@@ -6244,19 +6254,19 @@
         <v>2009</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -6274,16 +6284,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -6304,16 +6314,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6334,16 +6344,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6364,16 +6374,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6394,16 +6404,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -6424,16 +6434,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -6454,16 +6464,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -6486,16 +6496,16 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -6516,16 +6526,16 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>0</v>
@@ -6546,16 +6556,16 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>0</v>
@@ -6576,16 +6586,16 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
@@ -6606,16 +6616,16 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>0</v>
@@ -6636,16 +6646,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -6666,16 +6676,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -6696,11 +6706,11 @@
       <c r="S28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6743,7 +6753,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G17">
+  <conditionalFormatting sqref="G17 G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6760,7 +6770,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
+  <conditionalFormatting sqref="H17 H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6798,13 +6808,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6812,10 +6822,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6823,10 +6833,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6834,10 +6844,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6845,10 +6855,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6856,10 +6866,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6867,10 +6877,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
